--- a/VCB/CDKT.xlsx
+++ b/VCB/CDKT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN66"/>
+  <dimension ref="A1:BO66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,6 +764,11 @@
           <t>Q1/2025</t>
         </is>
       </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Q2/2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1096,6 +1101,11 @@
           <t>01/01-31/03</t>
         </is>
       </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>01/04-30/06</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1428,6 +1438,11 @@
           <t>Hợp nhất</t>
         </is>
       </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>Hợp nhất</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1756,6 +1771,11 @@
         </is>
       </c>
       <c r="BN4" t="inlineStr">
+        <is>
+          <t>Chưa kiểm toán</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
         <is>
           <t>Chưa kiểm toán</t>
         </is>
@@ -1848,6 +1868,7 @@
       <c r="BL5" t="inlineStr"/>
       <c r="BM5" t="inlineStr"/>
       <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1936,6 +1957,7 @@
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="inlineStr"/>
       <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -2004,6 +2026,7 @@
       <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="inlineStr"/>
       <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2076,6 +2099,7 @@
       <c r="BL8" t="inlineStr"/>
       <c r="BM8" t="inlineStr"/>
       <c r="BN8" t="inlineStr"/>
+      <c r="BO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2408,6 +2432,11 @@
           <t>13713</t>
         </is>
       </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>14790</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2740,6 +2769,11 @@
           <t>28021</t>
         </is>
       </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>37686</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3072,6 +3106,11 @@
           <t>410588</t>
         </is>
       </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>432537</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3404,6 +3443,11 @@
           <t>404239</t>
         </is>
       </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>426017</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3734,6 +3778,11 @@
       <c r="BN13" t="inlineStr">
         <is>
           <t>6348</t>
+        </is>
+      </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>6520</t>
         </is>
       </c>
     </row>
@@ -4052,6 +4101,7 @@
         </is>
       </c>
       <c r="BN14" t="inlineStr"/>
+      <c r="BO14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4380,6 +4430,11 @@
           <t>8418</t>
         </is>
       </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>7993</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4708,6 +4763,11 @@
           <t>8448</t>
         </is>
       </c>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>8032</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5034,6 +5094,11 @@
       <c r="BN17" t="inlineStr">
         <is>
           <t>-31</t>
+        </is>
+      </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>-39</t>
         </is>
       </c>
     </row>
@@ -5296,6 +5361,7 @@
         </is>
       </c>
       <c r="BN18" t="inlineStr"/>
+      <c r="BO18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5628,6 +5694,11 @@
           <t>1433896</t>
         </is>
       </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t>1522462</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5960,6 +6031,11 @@
           <t>1466391</t>
         </is>
       </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t>1555769</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6290,6 +6366,11 @@
       <c r="BN21" t="inlineStr">
         <is>
           <t>-32494</t>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>-33307</t>
         </is>
       </c>
     </row>
@@ -6420,6 +6501,7 @@
       <c r="BL22" t="inlineStr"/>
       <c r="BM22" t="inlineStr"/>
       <c r="BN22" t="inlineStr"/>
+      <c r="BO22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6548,6 +6630,7 @@
       <c r="BL23" t="inlineStr"/>
       <c r="BM23" t="inlineStr"/>
       <c r="BN23" t="inlineStr"/>
+      <c r="BO23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6676,6 +6759,7 @@
       <c r="BL24" t="inlineStr"/>
       <c r="BM24" t="inlineStr"/>
       <c r="BN24" t="inlineStr"/>
+      <c r="BO24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7008,6 +7092,11 @@
           <t>176979</t>
         </is>
       </c>
+      <c r="BO25" t="inlineStr">
+        <is>
+          <t>162434</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7340,6 +7429,11 @@
           <t>108816</t>
         </is>
       </c>
+      <c r="BO26" t="inlineStr">
+        <is>
+          <t>128742</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7672,6 +7766,11 @@
           <t>68408</t>
         </is>
       </c>
+      <c r="BO27" t="inlineStr">
+        <is>
+          <t>33936</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8004,6 +8103,11 @@
           <t>-245</t>
         </is>
       </c>
+      <c r="BO28" t="inlineStr">
+        <is>
+          <t>-244</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8334,6 +8438,11 @@
       <c r="BN29" t="inlineStr">
         <is>
           <t>2269</t>
+        </is>
+      </c>
+      <c r="BO29" t="inlineStr">
+        <is>
+          <t>2314</t>
         </is>
       </c>
     </row>
@@ -8544,6 +8653,11 @@
       <c r="BL30" t="inlineStr"/>
       <c r="BM30" t="inlineStr"/>
       <c r="BN30" t="inlineStr"/>
+      <c r="BO30" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8876,6 +8990,11 @@
           <t>815</t>
         </is>
       </c>
+      <c r="BO31" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9208,6 +9327,11 @@
           <t>1529</t>
         </is>
       </c>
+      <c r="BO32" t="inlineStr">
+        <is>
+          <t>1529</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9540,6 +9664,11 @@
           <t>-75</t>
         </is>
       </c>
+      <c r="BO33" t="inlineStr">
+        <is>
+          <t>-75</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9872,6 +10001,11 @@
           <t>8016</t>
         </is>
       </c>
+      <c r="BO34" t="inlineStr">
+        <is>
+          <t>7968</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10202,6 +10336,11 @@
       <c r="BN35" t="inlineStr">
         <is>
           <t>5495</t>
+        </is>
+      </c>
+      <c r="BO35" t="inlineStr">
+        <is>
+          <t>5487</t>
         </is>
       </c>
     </row>
@@ -10388,6 +10527,7 @@
       <c r="BL36" t="inlineStr"/>
       <c r="BM36" t="inlineStr"/>
       <c r="BN36" t="inlineStr"/>
+      <c r="BO36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10714,6 +10854,11 @@
       <c r="BN37" t="inlineStr">
         <is>
           <t>2521</t>
+        </is>
+      </c>
+      <c r="BO37" t="inlineStr">
+        <is>
+          <t>2480</t>
         </is>
       </c>
     </row>
@@ -10896,6 +11041,7 @@
       <c r="BL38" t="inlineStr"/>
       <c r="BM38" t="inlineStr"/>
       <c r="BN38" t="inlineStr"/>
+      <c r="BO38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11076,6 +11222,7 @@
       <c r="BL39" t="inlineStr"/>
       <c r="BM39" t="inlineStr"/>
       <c r="BN39" t="inlineStr"/>
+      <c r="BO39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11256,6 +11403,7 @@
       <c r="BL40" t="inlineStr"/>
       <c r="BM40" t="inlineStr"/>
       <c r="BN40" t="inlineStr"/>
+      <c r="BO40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11588,6 +11736,11 @@
           <t>27361</t>
         </is>
       </c>
+      <c r="BO41" t="inlineStr">
+        <is>
+          <t>29756</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11920,6 +12073,11 @@
           <t>13795</t>
         </is>
       </c>
+      <c r="BO42" t="inlineStr">
+        <is>
+          <t>16925</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -12250,6 +12408,11 @@
       <c r="BN43" t="inlineStr">
         <is>
           <t>9745</t>
+        </is>
+      </c>
+      <c r="BO43" t="inlineStr">
+        <is>
+          <t>8785</t>
         </is>
       </c>
     </row>
@@ -12560,6 +12723,11 @@
           <t>992</t>
         </is>
       </c>
+      <c r="BO44" t="inlineStr">
+        <is>
+          <t>994</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12890,6 +13058,11 @@
       <c r="BN45" t="inlineStr">
         <is>
           <t>2842</t>
+        </is>
+      </c>
+      <c r="BO45" t="inlineStr">
+        <is>
+          <t>3067</t>
         </is>
       </c>
     </row>
@@ -13072,6 +13245,7 @@
       <c r="BL46" t="inlineStr"/>
       <c r="BM46" t="inlineStr"/>
       <c r="BN46" t="inlineStr"/>
+      <c r="BO46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -13360,6 +13534,11 @@
           <t>-14</t>
         </is>
       </c>
+      <c r="BO47" t="inlineStr">
+        <is>
+          <t>-14</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13690,6 +13869,11 @@
       <c r="BN48" t="inlineStr">
         <is>
           <t>2109261</t>
+        </is>
+      </c>
+      <c r="BO48" t="inlineStr">
+        <is>
+          <t>2217941</t>
         </is>
       </c>
     </row>
@@ -13764,6 +13948,7 @@
       <c r="BL49" t="inlineStr"/>
       <c r="BM49" t="inlineStr"/>
       <c r="BN49" t="inlineStr"/>
+      <c r="BO49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -14096,6 +14281,11 @@
           <t>125298</t>
         </is>
       </c>
+      <c r="BO50" t="inlineStr">
+        <is>
+          <t>99737</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -14428,6 +14618,11 @@
           <t>222764</t>
         </is>
       </c>
+      <c r="BO51" t="inlineStr">
+        <is>
+          <t>259086</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -14758,6 +14953,11 @@
       <c r="BN52" t="inlineStr">
         <is>
           <t>1509113</t>
+        </is>
+      </c>
+      <c r="BO52" t="inlineStr">
+        <is>
+          <t>1586683</t>
         </is>
       </c>
     </row>
@@ -15006,6 +15206,11 @@
       <c r="BN53" t="inlineStr">
         <is>
           <t>306</t>
+        </is>
+      </c>
+      <c r="BO53" t="inlineStr">
+        <is>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -15296,6 +15501,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="BO54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -15628,6 +15838,11 @@
           <t>14165</t>
         </is>
       </c>
+      <c r="BO55" t="inlineStr">
+        <is>
+          <t>24165</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -15960,6 +16175,11 @@
           <t>32671</t>
         </is>
       </c>
+      <c r="BO56" t="inlineStr">
+        <is>
+          <t>34473</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -16292,6 +16512,11 @@
           <t>1904319</t>
         </is>
       </c>
+      <c r="BO57" t="inlineStr">
+        <is>
+          <t>2004192</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -16624,6 +16849,11 @@
           <t>204942</t>
         </is>
       </c>
+      <c r="BO58" t="inlineStr">
+        <is>
+          <t>213749</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -16956,6 +17186,11 @@
           <t>89362</t>
         </is>
       </c>
+      <c r="BO59" t="inlineStr">
+        <is>
+          <t>89362</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -17288,6 +17523,11 @@
           <t>37053</t>
         </is>
       </c>
+      <c r="BO60" t="inlineStr">
+        <is>
+          <t>37061</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -17618,6 +17858,11 @@
       <c r="BN61" t="inlineStr">
         <is>
           <t>-952</t>
+        </is>
+      </c>
+      <c r="BO61" t="inlineStr">
+        <is>
+          <t>-926</t>
         </is>
       </c>
     </row>
@@ -17908,6 +18153,7 @@
       </c>
       <c r="BM62" t="inlineStr"/>
       <c r="BN62" t="inlineStr"/>
+      <c r="BO62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -18238,6 +18484,11 @@
       <c r="BN63" t="inlineStr">
         <is>
           <t>79376</t>
+        </is>
+      </c>
+      <c r="BO63" t="inlineStr">
+        <is>
+          <t>88146</t>
         </is>
       </c>
     </row>
@@ -18460,6 +18711,11 @@
           <t>102</t>
         </is>
       </c>
+      <c r="BO64" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -18680,6 +18936,7 @@
       <c r="BL65" t="inlineStr"/>
       <c r="BM65" t="inlineStr"/>
       <c r="BN65" t="inlineStr"/>
+      <c r="BO65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -19010,6 +19267,11 @@
       <c r="BN66" t="inlineStr">
         <is>
           <t>2109261</t>
+        </is>
+      </c>
+      <c r="BO66" t="inlineStr">
+        <is>
+          <t>2217941</t>
         </is>
       </c>
     </row>
